--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Btc-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Btc-Erbb4.xlsx
@@ -537,10 +537,10 @@
         <v>0.687972</v>
       </c>
       <c r="I2">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807232</v>
       </c>
       <c r="J2">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807231</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,10 +567,10 @@
         <v>0.013106554572</v>
       </c>
       <c r="S2">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807232</v>
       </c>
       <c r="T2">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.475336333333334</v>
+        <v>0.065288</v>
       </c>
       <c r="H3">
-        <v>4.426009000000001</v>
+        <v>0.195864</v>
       </c>
       <c r="I3">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="J3">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.009368877495444445</v>
+        <v>0.0004146005626666666</v>
       </c>
       <c r="R3">
-        <v>0.08431989745900001</v>
+        <v>0.003731405064</v>
       </c>
       <c r="S3">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="T3">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
     </row>
   </sheetData>
